--- a/Can-system-protocol.xlsx
+++ b/Can-system-protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakob\Documents\GitHub\Software-dolken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ED1B126-E57C-4FF9-88C9-8A3783B99252}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517AF618-9427-4F4E-AE93-380756B20B22}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{C4D3B96B-533A-46FE-AF6A-8CE157620AD5}"/>
   </bookViews>
@@ -110,9 +110,6 @@
     <t xml:space="preserve">Can bus protocol, this is a list of all the can bus commands, what they should aks for and what should be return to the bus. Since all boards can see all the data the boards should themselvs choose if they should react or not, for some commands all boards should react and for some other command only 1 board should reply/react. </t>
   </si>
   <si>
-    <t xml:space="preserve">All the command address is of 1 byte (so we can only have 256 commands) but the commands may require the boards to read more data then just the command ID, the following datasize is specified in the "parameters byte data" will tell how much data the board should read besides the command byte. The "Data" tab will describe what the data is (for the human reader). The "Responseable board" tab is telling what boards should react in any way to this command.                                                                                                                                                                                                                                                                                         </t>
-  </si>
-  <si>
     <t>If there is no returnvalue when expected within 5ms the main/telemen board should send an errorstate to ground/CAN-bus</t>
   </si>
   <si>
@@ -253,6 +250,9 @@
   </si>
   <si>
     <t>Returns the current position.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All the command address is of 1 byte (so we can only have 256 commands) but the commands may require the boards to read more data then just the command ID, the following datasize is specified in the "parameters byte data" will tell how much data the board should read besides the command byte. The "Data" tab will describe what the data is (for the human reader). The "Responseable board" tab is telling what boards should react in any way to this command.  Please remember to check if the Hex address and decimal address is the same :)                                                                                                                                                                                                                                                                                        </t>
   </si>
 </sst>
 </file>
@@ -703,7 +703,7 @@
   <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,7 +728,7 @@
         <v>25</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -747,7 +747,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="K3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -773,7 +773,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L4" s="12" t="s">
         <v>2</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="5" spans="1:13" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="13">
         <v>5</v>
@@ -794,13 +794,13 @@
         <v>3</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M5" s="15"/>
     </row>
     <row r="6" spans="1:13" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="13">
         <v>6</v>
@@ -827,7 +827,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>12</v>
@@ -842,13 +842,13 @@
         <v>1</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:13" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="13">
         <v>10</v>
@@ -875,13 +875,13 @@
         <v>5</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:13" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="13">
         <v>11</v>
@@ -908,13 +908,13 @@
         <v>6</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M8" s="15"/>
     </row>
     <row r="9" spans="1:13" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="13">
         <v>15</v>
@@ -941,13 +941,13 @@
         <v>7</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M9" s="15"/>
     </row>
     <row r="10" spans="1:13" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="13">
         <v>16</v>
@@ -965,7 +965,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -974,13 +974,13 @@
         <v>8</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M10" s="15"/>
     </row>
     <row r="11" spans="1:13" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="13">
         <v>17</v>
@@ -1007,13 +1007,13 @@
         <v>9</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="1:13" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="13">
         <v>18</v>
@@ -1031,7 +1031,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -1040,13 +1040,13 @@
         <v>15</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M12" s="15"/>
     </row>
     <row r="13" spans="1:13" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="13">
         <v>19</v>
@@ -1058,7 +1058,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>12</v>
@@ -1073,13 +1073,13 @@
         <v>16</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M13" s="15"/>
     </row>
     <row r="14" spans="1:13" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="13">
         <v>20</v>
@@ -1088,16 +1088,16 @@
         <v>2</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -1106,13 +1106,13 @@
         <v>17</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M14" s="15"/>
     </row>
     <row r="15" spans="1:13" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="13">
         <v>21</v>
@@ -1124,7 +1124,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>12</v>
@@ -1139,13 +1139,13 @@
         <v>18</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M15" s="15"/>
     </row>
     <row r="16" spans="1:13" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="13">
         <v>22</v>
@@ -1154,16 +1154,16 @@
         <v>2</v>
       </c>
       <c r="D16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>51</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>52</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -1172,13 +1172,13 @@
         <v>19</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M16" s="15"/>
     </row>
     <row r="17" spans="1:13" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="13">
         <v>23</v>
@@ -1190,7 +1190,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>12</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="18" spans="1:13" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="13">
         <v>24</v>
@@ -1216,10 +1216,10 @@
         <v>6</v>
       </c>
       <c r="D18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>69</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>11</v>
